--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_DAKOTA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_DAKOTA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C24">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1025,12 +1025,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C48">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C49">
@@ -1178,7 +1178,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C59">
@@ -1217,7 +1217,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C62">
@@ -1230,7 +1230,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C63">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C66">
@@ -1300,7 +1300,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C68">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C69">
@@ -1339,7 +1339,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C71">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C74">
@@ -1456,7 +1456,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C80">
@@ -1513,7 +1513,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C84">
@@ -1539,7 +1539,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C86">
@@ -1552,7 +1552,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C87">
@@ -1687,7 +1687,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C97">
@@ -1700,7 +1700,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C98">
@@ -1726,7 +1726,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C100">
@@ -1739,7 +1739,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C101">
@@ -1848,7 +1848,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C109">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C132">
@@ -2219,7 +2219,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C136">
@@ -2297,7 +2297,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C142">
@@ -2310,7 +2310,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C143">
@@ -2533,7 +2533,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C159">
@@ -2559,7 +2559,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C161">
@@ -2572,7 +2572,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C162">
@@ -2735,7 +2735,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C173">
@@ -2748,7 +2748,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C174">
@@ -2787,7 +2787,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C177">
@@ -2800,7 +2800,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C178">
@@ -2982,41 +2982,6 @@
       </c>
       <c r="D191">
         <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_DAKOTA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_DAKOTA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chínipas</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>León</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -1963,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1976,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2178,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -2191,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -2204,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Mateo Del Mar</t>
@@ -2230,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -2243,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -2269,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2282,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2295,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -2308,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Zapotitlán Del Río</t>
@@ -2321,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2352,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -2365,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -2378,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>San José Miahuatlán</t>
@@ -2391,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2404,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2417,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2430,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2443,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2474,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2505,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2518,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2531,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2544,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2557,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -2570,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2583,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2614,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -2627,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2658,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2689,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2702,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2733,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2746,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2759,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2772,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2785,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -2798,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2811,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2824,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2837,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2850,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2881,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -2894,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -2907,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -2920,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2933,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Susticacán</t>
@@ -2946,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2959,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Total</t>
